--- a/output/3.5._Manufacture_of_energy_efficiency_equipment_for_buildings/DNF_3.5. Manufacture of energy efficiency equipment for buildings.xlsx
+++ b/output/3.5._Manufacture_of_energy_efficiency_equipment_for_buildings/DNF_3.5. Manufacture of energy efficiency equipment for buildings.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,378 +560,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Climate Change Adaptation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Product | Project</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Climate Change Adaptation</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Product | Project</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>(((((ePBN114211_1=0)&amp;ePBN115002_1&amp;ePBN114210_1)|(((ePBN113603_1=0)|(ePBN113603_1&amp;ePBN113601_1&amp;(ePBN113602_1=0))|(ePBN113603_1&amp;ePBN113601_1&amp;ePBN113602_1&amp;ePBN111305_1&amp;(ePBN113604_1=0))|(ePBN113603_1&amp;ePBN113601_1&amp;ePBN113602_1&amp;ePBN111305_1&amp;ePBN113604_1&amp;ePBN113605_1))&amp;ePBN111303_1)&amp;ePBN114211_1)&amp;(ePBN990109_1=0))|ePBN990109_1)&amp;ePBN110911_1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Expected RPAREN but got LITERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>((ePBN990111_1|((ePBN990111_1=0)&amp;ePBN992712_1&amp;(ePBN992711_1=0))|((ePBN990111_1=0)&amp;ePBN992712_1&amp;ePBN992711_1&amp;ePBN992708_1&amp;(ePBN992710_1=0))|((ePBN990111_1=0)&amp;ePBN992712_1&amp;ePBN992711_1&amp;ePBN992708_1&amp;ePBN992710_1&amp;ePBN992709_1))&amp;ePBN114211_1)&amp;ePBN110911_1</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Expected RPAREN but got LPAREN</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Circular Economy</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Circular Economy</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>((ePBN990113_1|((ePBN990113_1=0)&amp;ePBN114316_1&amp;ePBN114317_1&amp;ePBN115001_1))&amp;(ePBN114211_1=0))&amp;ePBN110911_1</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Expected RPAREN but got LPAREN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PollutionPrevention and Control</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Product &amp; Project</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PollutionPrevention and Control</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Product &amp; Project</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>(ePBN990115_1|((ePBN990115_1=0)&amp;ePBN113903_1&amp;(ePBN113904_1=0))|((ePBN990115_1=0)&amp;ePBN113904_1&amp;ePBN113903_1&amp;ePBN113905_1&amp;(ePBN114205_1=0)&amp;ePBN114206_1)|((ePBN990115_1=0)&amp;ePBN113903_1&amp;ePBN113904_1&amp;ePBN113905_1&amp;ePBN114205_1&amp;ePBN113902_1&amp;ePBN114206_1)|((ePBN990115_1=0)&amp;ePBN113903_1&amp;ePBN113904_1&amp;(ePBN113905_1=0)&amp;ePBN113902_1&amp;ePBN114206_1))&amp;ePBN110911_1</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Expected RPAREN but got LPAREN</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Biodiversity</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Biodiversity</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>((ePBN990117_1|((ePBN990117_1=0)&amp;ePBN992713_1&amp;(ePBN992714_1=0))|((ePBN990117_1=0)&amp;ePBN992713_1&amp;ePBN992714_1&amp;ePBN992715_1&amp;(ePBN992717_1=0))|((ePBN990117_1=0)&amp;ePBN992713_1&amp;ePBN992714_1&amp;ePBN992717_1&amp;ePBN992715_1&amp;ePBN992716_1&amp;(ePBN992701_1=0)))&amp;ePBN114211_1)&amp;ePBN110911_1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Expected RPAREN but got LPAREN</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portfolio</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Product | Project</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Climate Change Mitigation</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Portfolio</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Product | Project</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>ePBN990097_1&amp;ePBN990103_1&amp;((ePBN114211_1&amp;ePBN990099_1&amp;ePBN990105_1)|((ePBN114211_1=0)&amp;ePBN990101_1))</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Unexpected token (</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/3.5._Manufacture_of_energy_efficiency_equipment_for_buildings/DNF_3.5. Manufacture of energy efficiency equipment for buildings.xlsx
+++ b/output/3.5._Manufacture_of_energy_efficiency_equipment_for_buildings/DNF_3.5. Manufacture of energy efficiency equipment for buildings.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Substantial Contribution</t>
@@ -514,10 +519,18 @@
           <t>Product &amp; Project</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alignment Rule 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN111002_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -551,12 +564,1127 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Unexpected token &amp;</t>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Alignment Rule 2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN111003_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alignment Rule 3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115687_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alignment Rule 4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115688_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alignment Rule 5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115689_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alignment Rule 6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115690_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alignment Rule 7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115691_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alignment Rule 8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115692_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alignment Rule 9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115693_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Alignment Rule 10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115694_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Alignment Rule 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115695_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Alignment Rule 12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115696_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alignment Rule 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115697_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Alignment Rule 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115698_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alignment Rule 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115699_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Alignment Rule 16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115700_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CCM_3.5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Alignment Rule 17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ePBN110911_1 EQ1 AND ePBN115701_1 EQ1 AND ePBN993847_1 NEQ1</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Climate Change Mitigation</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3.5. Manufacture of energy efficiency equipment for buildings</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Substantial Contribution</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Product &amp; Project</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>((ePBN111002_1|ePBN111003_1|ePBN115700_1|ePBN115701_1|ePBN115699_1|ePBN115691_1|ePBN115692_1|ePBN115693_1|ePBN115694_1|ePBN115695_1|ePBN115696_1|ePBN115697_1|ePBN115698_1|ePBN115690_1|ePBN115688_1|ePBN115689_1|ePBN115687_1))&amp;(ePBN993847_1&lt;&gt;1)&amp;ePBN110911_1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
